--- a/InputFiles/CCDI/TC09_CCDI_PHS-Accession-phs003111_Acro-CCDI_MSK_phs003111_LibSrc-Genomic.xlsx
+++ b/InputFiles/CCDI/TC09_CCDI_PHS-Accession-phs003111_Acro-CCDI_MSK_phs003111_LibSrc-Genomic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\MarchBranch\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090E8CFD-39AD-494D-9F17-A03F7959F6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BCBDE-469D-48F6-9DC1-305607215F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>FilesTab</t>
-  </si>
-  <si>
-    <t>TC09_CCDI_PHS-Accession-phs003111_Acro-CCDI_MSK_phs003111_LibSrc-Genomi_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC09_CCDI_PHS-Accession-phs003111_Acro-CCDI_MSK_phs003111_LibSrc-Genomi_WebData.xlsx</t>
   </si>
   <si>
     <t>Match (st:study)
@@ -2031,6 +2025,12 @@
   coalesce(alternate_participant_id, '') AS `Alternate ID`
   Order by participant_id Limit 100</t>
   </si>
+  <si>
+    <t>TC09_CCDI_PHS-Accession-phs003111_Acro-CCDI_MSK_phs003111_LibSrc-Genomic_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC09_CCDI_PHS-Accession-phs003111_Acro-CCDI_MSK_phs003111_LibSrc-Genomic_WebData.xlsx</t>
+  </si>
 </sst>
 </file>
 
@@ -2416,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,16 +2451,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2468,16 +2468,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2485,16 +2485,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2502,16 +2502,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -2519,16 +2519,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
